--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd86-Cd28.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd86-Cd28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H2">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I2">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J2">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N2">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O2">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P2">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q2">
-        <v>360.9988718263218</v>
+        <v>0.5922423466700001</v>
       </c>
       <c r="R2">
-        <v>3248.989846436896</v>
+        <v>5.330181120030001</v>
       </c>
       <c r="S2">
-        <v>0.1283197057603333</v>
+        <v>0.0009114454013927415</v>
       </c>
       <c r="T2">
-        <v>0.1283197057603334</v>
+        <v>0.0009114454013927413</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H3">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I3">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J3">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +620,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N3">
         <v>0.016001</v>
       </c>
       <c r="O3">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P3">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q3">
-        <v>0.4345523987164444</v>
+        <v>0.002578321135</v>
       </c>
       <c r="R3">
-        <v>3.910971588447999</v>
+        <v>0.023204890215</v>
       </c>
       <c r="S3">
-        <v>0.0001544648482102969</v>
+        <v>3.967968442349317E-06</v>
       </c>
       <c r="T3">
-        <v>0.0001544648482102969</v>
+        <v>3.967968442349316E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H4">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I4">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J4">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N4">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O4">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P4">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q4">
-        <v>77.446574312384</v>
+        <v>0.2304054862850001</v>
       </c>
       <c r="R4">
-        <v>697.019168811456</v>
+        <v>2.073649376565001</v>
       </c>
       <c r="S4">
-        <v>0.02752895480707232</v>
+        <v>0.0003545879860008317</v>
       </c>
       <c r="T4">
-        <v>0.02752895480707233</v>
+        <v>0.0003545879860008316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>81.47348266666667</v>
+        <v>0.483405</v>
       </c>
       <c r="H5">
-        <v>244.420448</v>
+        <v>1.450215</v>
       </c>
       <c r="I5">
-        <v>0.3594530042390097</v>
+        <v>0.003094960828876145</v>
       </c>
       <c r="J5">
-        <v>0.3594530042390096</v>
+        <v>0.003094960828876144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N5">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O5">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P5">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q5">
-        <v>572.3608567621156</v>
+        <v>1.18582888151</v>
       </c>
       <c r="R5">
-        <v>5151.24771085904</v>
+        <v>10.67245993359</v>
       </c>
       <c r="S5">
-        <v>0.2034498788233937</v>
+        <v>0.001824959473040222</v>
       </c>
       <c r="T5">
-        <v>0.2034498788233937</v>
+        <v>0.001824959473040222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H6">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I6">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J6">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N6">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O6">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P6">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q6">
-        <v>97.31074221851921</v>
+        <v>129.5003596666398</v>
       </c>
       <c r="R6">
-        <v>875.7966799666729</v>
+        <v>1165.503236999758</v>
       </c>
       <c r="S6">
-        <v>0.0345898194795676</v>
+        <v>0.1992976489447707</v>
       </c>
       <c r="T6">
-        <v>0.03458981947956762</v>
+        <v>0.1992976489447707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H7">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I7">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J7">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N7">
         <v>0.016001</v>
       </c>
       <c r="O7">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P7">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q7">
-        <v>0.1171378077665555</v>
+        <v>0.5637785210665556</v>
       </c>
       <c r="R7">
-        <v>1.054240269899</v>
+        <v>5.074006689599</v>
       </c>
       <c r="S7">
-        <v>4.163749584582199E-05</v>
+        <v>0.000867640322106913</v>
       </c>
       <c r="T7">
-        <v>4.1637495845822E-05</v>
+        <v>0.0008676403221069129</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H8">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I8">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J8">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N8">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O8">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P8">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q8">
-        <v>20.876474185342</v>
+        <v>50.38071578441212</v>
       </c>
       <c r="R8">
-        <v>187.888267668078</v>
+        <v>453.4264420597091</v>
       </c>
       <c r="S8">
-        <v>0.007420696389503105</v>
+        <v>0.07753459707629373</v>
       </c>
       <c r="T8">
-        <v>0.007420696389503107</v>
+        <v>0.07753459707629373</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +959,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.96196633333333</v>
+        <v>105.7018663333333</v>
       </c>
       <c r="H9">
-        <v>65.88589899999999</v>
+        <v>317.105599</v>
       </c>
       <c r="I9">
-        <v>0.09689403863844469</v>
+        <v>0.676747521934545</v>
       </c>
       <c r="J9">
-        <v>0.09689403863844469</v>
+        <v>0.6767475219345449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.025118333333334</v>
+        <v>2.453075333333333</v>
       </c>
       <c r="N9">
-        <v>21.075355</v>
+        <v>7.359226</v>
       </c>
       <c r="O9">
-        <v>0.5659985489733577</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="P9">
-        <v>0.5659985489733578</v>
+        <v>0.5896551116296064</v>
       </c>
       <c r="Q9">
-        <v>154.2854123243495</v>
+        <v>259.2946409895971</v>
       </c>
       <c r="R9">
-        <v>1388.568710919145</v>
+        <v>2333.651768906374</v>
       </c>
       <c r="S9">
-        <v>0.05484188527352814</v>
+        <v>0.3990476355913736</v>
       </c>
       <c r="T9">
-        <v>0.05484188527352816</v>
+        <v>0.3990476355913736</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.2241746666667</v>
+        <v>18.83134933333333</v>
       </c>
       <c r="H10">
-        <v>369.672524</v>
+        <v>56.494048</v>
       </c>
       <c r="I10">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="J10">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.430875666666666</v>
+        <v>1.225147333333333</v>
       </c>
       <c r="N10">
-        <v>13.292627</v>
+        <v>3.675442</v>
       </c>
       <c r="O10">
-        <v>0.3569860433688578</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="P10">
-        <v>0.356986043368858</v>
+        <v>0.2944933560673559</v>
       </c>
       <c r="Q10">
-        <v>545.9909970756164</v>
+        <v>23.07117741880178</v>
       </c>
       <c r="R10">
-        <v>4913.918973680548</v>
+        <v>207.640596769216</v>
       </c>
       <c r="S10">
-        <v>0.1940765181289569</v>
+        <v>0.0355059355031225</v>
       </c>
       <c r="T10">
-        <v>0.194076518128957</v>
+        <v>0.0355059355031225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.2241746666667</v>
+        <v>18.83134933333333</v>
       </c>
       <c r="H11">
-        <v>369.672524</v>
+        <v>56.494048</v>
       </c>
       <c r="I11">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="J11">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.005333666666666666</v>
+        <v>0.005333666666666667</v>
       </c>
       <c r="N11">
         <v>0.016001</v>
       </c>
       <c r="O11">
-        <v>0.0004297219563856786</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="P11">
-        <v>0.0004297219563856788</v>
+        <v>0.001282073881300198</v>
       </c>
       <c r="Q11">
-        <v>0.6572366729471111</v>
+        <v>0.1004401402275556</v>
       </c>
       <c r="R11">
-        <v>5.915130056523999</v>
+        <v>0.9039612620480001</v>
       </c>
       <c r="S11">
-        <v>0.0002336196123295598</v>
+        <v>0.0001545747352251683</v>
       </c>
       <c r="T11">
-        <v>0.0002336196123295599</v>
+        <v>0.0001545747352251683</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.2241746666667</v>
+        <v>18.83134933333333</v>
       </c>
       <c r="H12">
-        <v>369.672524</v>
+        <v>56.494048</v>
       </c>
       <c r="I12">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="J12">
-        <v>0.5436529571225457</v>
+        <v>0.1205661682058513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.950574</v>
+        <v>0.4766303333333334</v>
       </c>
       <c r="N12">
-        <v>2.851722</v>
+        <v>1.429891</v>
       </c>
       <c r="O12">
-        <v>0.07658568570139869</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="P12">
-        <v>0.0765856857013987</v>
+        <v>0.1145694584217375</v>
       </c>
       <c r="Q12">
-        <v>117.133696609592</v>
+        <v>8.975592309863112</v>
       </c>
       <c r="R12">
-        <v>1054.203269486328</v>
+        <v>80.78033078876801</v>
       </c>
       <c r="S12">
-        <v>0.04163603450482326</v>
+        <v>0.01381320059532849</v>
       </c>
       <c r="T12">
-        <v>0.04163603450482327</v>
+        <v>0.01381320059532849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.83134933333333</v>
+      </c>
+      <c r="H13">
+        <v>56.494048</v>
+      </c>
+      <c r="I13">
+        <v>0.1205661682058513</v>
+      </c>
+      <c r="J13">
+        <v>0.1205661682058513</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.453075333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.359226</v>
+      </c>
+      <c r="O13">
+        <v>0.5896551116296064</v>
+      </c>
+      <c r="P13">
+        <v>0.5896551116296064</v>
+      </c>
+      <c r="Q13">
+        <v>46.19471854298311</v>
+      </c>
+      <c r="R13">
+        <v>415.752466886848</v>
+      </c>
+      <c r="S13">
+        <v>0.07109245737217516</v>
+      </c>
+      <c r="T13">
+        <v>0.07109245737217515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H14">
+        <v>93.523112</v>
+      </c>
+      <c r="I14">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J14">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.225147333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.675442</v>
+      </c>
+      <c r="O14">
+        <v>0.2944933560673559</v>
+      </c>
+      <c r="P14">
+        <v>0.2944933560673559</v>
+      </c>
+      <c r="Q14">
+        <v>38.19319709061156</v>
+      </c>
+      <c r="R14">
+        <v>343.738773815504</v>
+      </c>
+      <c r="S14">
+        <v>0.05877832621806994</v>
+      </c>
+      <c r="T14">
+        <v>0.05877832621806994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H15">
+        <v>93.523112</v>
+      </c>
+      <c r="I15">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J15">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.005333666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.016001</v>
+      </c>
+      <c r="O15">
+        <v>0.001282073881300198</v>
+      </c>
+      <c r="P15">
+        <v>0.001282073881300198</v>
+      </c>
+      <c r="Q15">
+        <v>0.1662737016791111</v>
+      </c>
+      <c r="R15">
+        <v>1.496463315112</v>
+      </c>
+      <c r="S15">
+        <v>0.0002558908555257673</v>
+      </c>
+      <c r="T15">
+        <v>0.0002558908555257673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>123.2241746666667</v>
-      </c>
-      <c r="H13">
-        <v>369.672524</v>
-      </c>
-      <c r="I13">
-        <v>0.5436529571225457</v>
-      </c>
-      <c r="J13">
-        <v>0.5436529571225457</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.025118333333334</v>
-      </c>
-      <c r="N13">
-        <v>21.075355</v>
-      </c>
-      <c r="O13">
-        <v>0.5659985489733577</v>
-      </c>
-      <c r="P13">
-        <v>0.5659985489733578</v>
-      </c>
-      <c r="Q13">
-        <v>865.664408560669</v>
-      </c>
-      <c r="R13">
-        <v>7790.979677046021</v>
-      </c>
-      <c r="S13">
-        <v>0.3077067848764359</v>
-      </c>
-      <c r="T13">
-        <v>0.3077067848764359</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H16">
+        <v>93.523112</v>
+      </c>
+      <c r="I16">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J16">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4766303333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.429891</v>
+      </c>
+      <c r="O16">
+        <v>0.1145694584217375</v>
+      </c>
+      <c r="P16">
+        <v>0.1145694584217375</v>
+      </c>
+      <c r="Q16">
+        <v>14.85865068231023</v>
+      </c>
+      <c r="R16">
+        <v>133.727856140792</v>
+      </c>
+      <c r="S16">
+        <v>0.02286707276411443</v>
+      </c>
+      <c r="T16">
+        <v>0.02286707276411443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>31.17437066666666</v>
+      </c>
+      <c r="H17">
+        <v>93.523112</v>
+      </c>
+      <c r="I17">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="J17">
+        <v>0.1995913490307275</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.453075333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.359226</v>
+      </c>
+      <c r="O17">
+        <v>0.5896551116296064</v>
+      </c>
+      <c r="P17">
+        <v>0.5896551116296064</v>
+      </c>
+      <c r="Q17">
+        <v>76.47307971459023</v>
+      </c>
+      <c r="R17">
+        <v>688.257717431312</v>
+      </c>
+      <c r="S17">
+        <v>0.1176900591930173</v>
+      </c>
+      <c r="T17">
+        <v>0.1176900591930173</v>
       </c>
     </row>
   </sheetData>
